--- a/Code/Results/Cases/Case_1_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.005933583709147</v>
+        <v>1.03148541099233</v>
       </c>
       <c r="D2">
-        <v>1.037226288867848</v>
+        <v>1.047306027732941</v>
       </c>
       <c r="E2">
-        <v>1.022451528839166</v>
+        <v>1.041538956723896</v>
       </c>
       <c r="F2">
-        <v>1.035427334018471</v>
+        <v>1.053666922211869</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048292965737213</v>
+        <v>1.03892164668376</v>
       </c>
       <c r="J2">
-        <v>1.027938259203451</v>
+        <v>1.036620876777417</v>
       </c>
       <c r="K2">
-        <v>1.048190264935886</v>
+        <v>1.050069034670119</v>
       </c>
       <c r="L2">
-        <v>1.033606694336188</v>
+        <v>1.044318186378461</v>
       </c>
       <c r="M2">
-        <v>1.046414224516985</v>
+        <v>1.056412259242944</v>
       </c>
       <c r="N2">
-        <v>1.013206274431409</v>
+        <v>1.016195276744317</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009508961141</v>
+        <v>1.03225628289602</v>
       </c>
       <c r="D3">
-        <v>1.039701977821556</v>
+        <v>1.047860804491825</v>
       </c>
       <c r="E3">
-        <v>1.025320935344212</v>
+        <v>1.042208037903043</v>
       </c>
       <c r="F3">
-        <v>1.038481780306732</v>
+        <v>1.054379481876735</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049135855414905</v>
+        <v>1.039060588742105</v>
       </c>
       <c r="J3">
-        <v>1.029743716634977</v>
+        <v>1.037034553001851</v>
       </c>
       <c r="K3">
-        <v>1.049850867614754</v>
+        <v>1.05043629598212</v>
       </c>
       <c r="L3">
-        <v>1.035639765239547</v>
+        <v>1.044798287530243</v>
       </c>
       <c r="M3">
-        <v>1.048644863121055</v>
+        <v>1.056938166464557</v>
       </c>
       <c r="N3">
-        <v>1.013813764138901</v>
+        <v>1.01633354031845</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011783698886503</v>
+        <v>1.032755916406945</v>
       </c>
       <c r="D4">
-        <v>1.041280135057947</v>
+        <v>1.048220379435842</v>
       </c>
       <c r="E4">
-        <v>1.027152302277912</v>
+        <v>1.042642085963329</v>
       </c>
       <c r="F4">
-        <v>1.040430861903371</v>
+        <v>1.054841681012223</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049664390179565</v>
+        <v>1.03914965874165</v>
       </c>
       <c r="J4">
-        <v>1.030890705193763</v>
+        <v>1.037302369039882</v>
       </c>
       <c r="K4">
-        <v>1.050904620893055</v>
+        <v>1.050673827858964</v>
       </c>
       <c r="L4">
-        <v>1.036933705764087</v>
+        <v>1.045109368745053</v>
       </c>
       <c r="M4">
-        <v>1.050064632750448</v>
+        <v>1.057278912619181</v>
       </c>
       <c r="N4">
-        <v>1.014199574983057</v>
+        <v>1.016423020380937</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012730978971373</v>
+        <v>1.032966158551251</v>
       </c>
       <c r="D5">
-        <v>1.041938021299718</v>
+        <v>1.048371685663215</v>
       </c>
       <c r="E5">
-        <v>1.027916302155572</v>
+        <v>1.042824822879325</v>
       </c>
       <c r="F5">
-        <v>1.041243873839066</v>
+        <v>1.055036256677122</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049882603878601</v>
+        <v>1.039186903129764</v>
       </c>
       <c r="J5">
-        <v>1.031367923386448</v>
+        <v>1.037414991012139</v>
       </c>
       <c r="K5">
-        <v>1.051342738481558</v>
+        <v>1.050773658257039</v>
       </c>
       <c r="L5">
-        <v>1.037472628408631</v>
+        <v>1.045240247121191</v>
       </c>
       <c r="M5">
-        <v>1.050655978821769</v>
+        <v>1.057422267987863</v>
       </c>
       <c r="N5">
-        <v>1.014360065250223</v>
+        <v>1.016460640722366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012889509982278</v>
+        <v>1.033001470581343</v>
       </c>
       <c r="D6">
-        <v>1.042048160065157</v>
+        <v>1.048397098847955</v>
       </c>
       <c r="E6">
-        <v>1.028044239197133</v>
+        <v>1.042855520579532</v>
       </c>
       <c r="F6">
-        <v>1.041380012585448</v>
+        <v>1.055068942387037</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049919011000076</v>
+        <v>1.039193144837967</v>
       </c>
       <c r="J6">
-        <v>1.031447761890185</v>
+        <v>1.037433902579854</v>
       </c>
       <c r="K6">
-        <v>1.051416016768894</v>
+        <v>1.050790418534707</v>
       </c>
       <c r="L6">
-        <v>1.037562823147469</v>
+        <v>1.045262227984362</v>
       </c>
       <c r="M6">
-        <v>1.050754947999475</v>
+        <v>1.057446344129819</v>
       </c>
       <c r="N6">
-        <v>1.014386913367584</v>
+        <v>1.016466957500195</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011796391589738</v>
+        <v>1.03275872490424</v>
       </c>
       <c r="D7">
-        <v>1.041288947497418</v>
+        <v>1.048222400645947</v>
       </c>
       <c r="E7">
-        <v>1.027162533885762</v>
+        <v>1.042644526671738</v>
       </c>
       <c r="F7">
-        <v>1.040441750269308</v>
+        <v>1.054844279894932</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049667321535406</v>
+        <v>1.039150157192345</v>
       </c>
       <c r="J7">
-        <v>1.030897101208715</v>
+        <v>1.037303873775741</v>
       </c>
       <c r="K7">
-        <v>1.050910494098299</v>
+        <v>1.050675161909535</v>
       </c>
       <c r="L7">
-        <v>1.036940926562122</v>
+        <v>1.045111117158047</v>
       </c>
       <c r="M7">
-        <v>1.050072555891628</v>
+        <v>1.057280827727641</v>
       </c>
       <c r="N7">
-        <v>1.014201726111356</v>
+        <v>1.016423523054919</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.007150087997396</v>
+        <v>1.031745758165606</v>
       </c>
       <c r="D8">
-        <v>1.038067957794865</v>
+        <v>1.047493392221064</v>
       </c>
       <c r="E8">
-        <v>1.023426599767892</v>
+        <v>1.04176484520412</v>
       </c>
       <c r="F8">
-        <v>1.036465362847449</v>
+        <v>1.053907500703907</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04858135241509</v>
+        <v>1.038968775181392</v>
       </c>
       <c r="J8">
-        <v>1.028552895100115</v>
+        <v>1.036760650810426</v>
       </c>
       <c r="K8">
-        <v>1.048755829686273</v>
+        <v>1.050193174386736</v>
       </c>
       <c r="L8">
-        <v>1.034298324239995</v>
+        <v>1.044480350130304</v>
       </c>
       <c r="M8">
-        <v>1.047173043379719</v>
+        <v>1.056589897991452</v>
       </c>
       <c r="N8">
-        <v>1.01341310774232</v>
+        <v>1.01624200031041</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9986534863374973</v>
+        <v>1.029967208931432</v>
       </c>
       <c r="D9">
-        <v>1.032204365282332</v>
+        <v>1.046213452194299</v>
       </c>
       <c r="E9">
-        <v>1.016642048590261</v>
+        <v>1.0402233112041</v>
       </c>
       <c r="F9">
-        <v>1.029241272671783</v>
+        <v>1.052265495606573</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046535859886651</v>
+        <v>1.03864279814639</v>
       </c>
       <c r="J9">
-        <v>1.024253883239856</v>
+        <v>1.03580455442317</v>
       </c>
       <c r="K9">
-        <v>1.044795696954603</v>
+        <v>1.049343068427164</v>
       </c>
       <c r="L9">
-        <v>1.029470769566416</v>
+        <v>1.043372173268251</v>
       </c>
       <c r="M9">
-        <v>1.04187709909074</v>
+        <v>1.055375910486719</v>
       </c>
       <c r="N9">
-        <v>1.01196599515334</v>
+        <v>1.015922265402013</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9927632065074377</v>
+        <v>1.028785949077922</v>
       </c>
       <c r="D10">
-        <v>1.02816077589173</v>
+        <v>1.045363419898123</v>
       </c>
       <c r="E10">
-        <v>1.01197292203561</v>
+        <v>1.03920151426416</v>
       </c>
       <c r="F10">
-        <v>1.024267945025073</v>
+        <v>1.051176824099277</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045079628676269</v>
+        <v>1.03842125205051</v>
       </c>
       <c r="J10">
-        <v>1.021266919450876</v>
+        <v>1.03516800004771</v>
       </c>
       <c r="K10">
-        <v>1.04203953631481</v>
+        <v>1.04877589430015</v>
       </c>
       <c r="L10">
-        <v>1.026129315027638</v>
+        <v>1.042635713068182</v>
       </c>
       <c r="M10">
-        <v>1.038212435591685</v>
+        <v>1.054569059849928</v>
       </c>
       <c r="N10">
-        <v>1.010960064427708</v>
+        <v>1.015709226830794</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9901548230430139</v>
+        <v>1.028275528578907</v>
       </c>
       <c r="D11">
-        <v>1.026376009329406</v>
+        <v>1.044996146351774</v>
       </c>
       <c r="E11">
-        <v>1.009913969848378</v>
+        <v>1.038760489202055</v>
       </c>
       <c r="F11">
-        <v>1.022074497294104</v>
+        <v>1.050706869014342</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044426183802678</v>
+        <v>1.038324327316763</v>
       </c>
       <c r="J11">
-        <v>1.019942986931826</v>
+        <v>1.03489258241788</v>
       </c>
       <c r="K11">
-        <v>1.040817084371883</v>
+        <v>1.048530216979875</v>
       </c>
       <c r="L11">
-        <v>1.02465131409792</v>
+        <v>1.042317389241559</v>
       </c>
       <c r="M11">
-        <v>1.036591791512678</v>
+        <v>1.054220294535419</v>
       </c>
       <c r="N11">
-        <v>1.010514112393028</v>
+        <v>1.015617013077928</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.989176877696902</v>
+        <v>1.028086098892599</v>
       </c>
       <c r="D12">
-        <v>1.025707805616249</v>
+        <v>1.044859846355802</v>
       </c>
       <c r="E12">
-        <v>1.009143369895602</v>
+        <v>1.038596888346527</v>
       </c>
       <c r="F12">
-        <v>1.021253512057493</v>
+        <v>1.050532526514321</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04417994317721</v>
+        <v>1.038288176648532</v>
       </c>
       <c r="J12">
-        <v>1.019446461250461</v>
+        <v>1.034790313708454</v>
       </c>
       <c r="K12">
-        <v>1.040358519336979</v>
+        <v>1.048438949927235</v>
       </c>
       <c r="L12">
-        <v>1.024097469108609</v>
+        <v>1.042199236632147</v>
       </c>
       <c r="M12">
-        <v>1.035984549938447</v>
+        <v>1.054090840543617</v>
       </c>
       <c r="N12">
-        <v>1.010346852404472</v>
+        <v>1.015582766307658</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9893870673714573</v>
+        <v>1.028126724784893</v>
       </c>
       <c r="D13">
-        <v>1.025851378580159</v>
+        <v>1.044889077623545</v>
       </c>
       <c r="E13">
-        <v>1.00930893302475</v>
+        <v>1.038631971498985</v>
       </c>
       <c r="F13">
-        <v>1.021429902530815</v>
+        <v>1.050569913590564</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04423292339961</v>
+        <v>1.038295937796924</v>
       </c>
       <c r="J13">
-        <v>1.0195531857947</v>
+        <v>1.034812249147791</v>
       </c>
       <c r="K13">
-        <v>1.040457088565485</v>
+        <v>1.04845852751811</v>
       </c>
       <c r="L13">
-        <v>1.02421649306683</v>
+        <v>1.042224576803002</v>
       </c>
       <c r="M13">
-        <v>1.036115046449153</v>
+        <v>1.054118604626847</v>
       </c>
       <c r="N13">
-        <v>1.010382804162091</v>
+        <v>1.015590112097974</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9900741732057681</v>
+        <v>1.02825986692066</v>
       </c>
       <c r="D14">
-        <v>1.026320883778887</v>
+        <v>1.044984877255443</v>
       </c>
       <c r="E14">
-        <v>1.009850391754305</v>
+        <v>1.038746961495756</v>
       </c>
       <c r="F14">
-        <v>1.022006763124455</v>
+        <v>1.050692453312525</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044405901823941</v>
+        <v>1.038321342116093</v>
       </c>
       <c r="J14">
-        <v>1.019902042027388</v>
+        <v>1.034884128159581</v>
       </c>
       <c r="K14">
-        <v>1.040779271667063</v>
+        <v>1.048522673043693</v>
       </c>
       <c r="L14">
-        <v>1.024605633059292</v>
+        <v>1.042307620925008</v>
       </c>
       <c r="M14">
-        <v>1.03654170516011</v>
+        <v>1.054209591920556</v>
       </c>
       <c r="N14">
-        <v>1.010500319870912</v>
+        <v>1.015614182113579</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9904963073615797</v>
+        <v>1.028341921873037</v>
       </c>
       <c r="D15">
-        <v>1.026609458826819</v>
+        <v>1.04504391876812</v>
       </c>
       <c r="E15">
-        <v>1.010183225063038</v>
+        <v>1.038817839247662</v>
       </c>
       <c r="F15">
-        <v>1.022361351692815</v>
+        <v>1.050767983268435</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044512010255199</v>
+        <v>1.038336974901044</v>
       </c>
       <c r="J15">
-        <v>1.020116348210568</v>
+        <v>1.034928419693883</v>
       </c>
       <c r="K15">
-        <v>1.040977180006507</v>
+        <v>1.048562193733688</v>
       </c>
       <c r="L15">
-        <v>1.024844747112449</v>
+        <v>1.042358798731505</v>
       </c>
       <c r="M15">
-        <v>1.036803880815859</v>
+        <v>1.054265664571402</v>
       </c>
       <c r="N15">
-        <v>1.010572509690447</v>
+        <v>1.015629013191812</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9929350651263444</v>
+        <v>1.028819846782056</v>
       </c>
       <c r="D16">
-        <v>1.028278496791333</v>
+        <v>1.045387811589676</v>
       </c>
       <c r="E16">
-        <v>1.012108765317185</v>
+        <v>1.039230813744444</v>
       </c>
       <c r="F16">
-        <v>1.024412654962676</v>
+        <v>1.051208044156506</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045122506418621</v>
+        <v>1.038427663755873</v>
       </c>
       <c r="J16">
-        <v>1.021354126597157</v>
+        <v>1.035186283251477</v>
       </c>
       <c r="K16">
-        <v>1.042120043915261</v>
+        <v>1.04879219738956</v>
       </c>
       <c r="L16">
-        <v>1.026226734670306</v>
+        <v>1.04265685128672</v>
       </c>
       <c r="M16">
-        <v>1.038319264588467</v>
+        <v>1.054592219190535</v>
       </c>
       <c r="N16">
-        <v>1.010989437571147</v>
+        <v>1.015715347500353</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9944490798323239</v>
+        <v>1.029119925109687</v>
       </c>
       <c r="D17">
-        <v>1.029316253096837</v>
+        <v>1.045603741118494</v>
       </c>
       <c r="E17">
-        <v>1.013306492916258</v>
+        <v>1.039490243389657</v>
       </c>
       <c r="F17">
-        <v>1.025688520048033</v>
+        <v>1.051484471764764</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045499269331068</v>
+        <v>1.038484284972984</v>
       </c>
       <c r="J17">
-        <v>1.022122255748568</v>
+        <v>1.03534809270826</v>
       </c>
       <c r="K17">
-        <v>1.042829072200032</v>
+        <v>1.048936450354003</v>
       </c>
       <c r="L17">
-        <v>1.027085165482007</v>
+        <v>1.042843965097467</v>
       </c>
       <c r="M17">
-        <v>1.039260645006443</v>
+        <v>1.054797221936776</v>
       </c>
       <c r="N17">
-        <v>1.011248149522537</v>
+        <v>1.015769512022922</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9953266239429214</v>
+        <v>1.029295059095539</v>
       </c>
       <c r="D18">
-        <v>1.029918303417078</v>
+        <v>1.045729765822209</v>
       </c>
       <c r="E18">
-        <v>1.014001534740285</v>
+        <v>1.039641701151904</v>
       </c>
       <c r="F18">
-        <v>1.026428871198804</v>
+        <v>1.051645846754441</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045716826352634</v>
+        <v>1.038517215228626</v>
       </c>
       <c r="J18">
-        <v>1.022567355872881</v>
+        <v>1.035442494039052</v>
       </c>
       <c r="K18">
-        <v>1.043239846050813</v>
+        <v>1.049020582152736</v>
       </c>
       <c r="L18">
-        <v>1.027582882265906</v>
+        <v>1.042953160139559</v>
       </c>
       <c r="M18">
-        <v>1.039806485763134</v>
+        <v>1.054916854946975</v>
       </c>
       <c r="N18">
-        <v>1.011398054382667</v>
+        <v>1.015801108456439</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9956249128947532</v>
+        <v>1.029354792731013</v>
       </c>
       <c r="D19">
-        <v>1.03012303999982</v>
+        <v>1.045772749927107</v>
       </c>
       <c r="E19">
-        <v>1.014237926782874</v>
+        <v>1.039693367478553</v>
       </c>
       <c r="F19">
-        <v>1.026680667594728</v>
+        <v>1.051700895035373</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045790636574786</v>
+        <v>1.038528427296919</v>
       </c>
       <c r="J19">
-        <v>1.022718630351026</v>
+        <v>1.03547468590635</v>
       </c>
       <c r="K19">
-        <v>1.043379439946279</v>
+        <v>1.049049267430767</v>
       </c>
       <c r="L19">
-        <v>1.027752088543281</v>
+        <v>1.042990402058551</v>
       </c>
       <c r="M19">
-        <v>1.039992057363766</v>
+        <v>1.054957656556329</v>
       </c>
       <c r="N19">
-        <v>1.011449000489801</v>
+        <v>1.015811882548191</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.994287217677208</v>
+        <v>1.029087718837891</v>
       </c>
       <c r="D20">
-        <v>1.029205249617456</v>
+        <v>1.045580565978459</v>
       </c>
       <c r="E20">
-        <v>1.013178359192088</v>
+        <v>1.039462394874237</v>
       </c>
       <c r="F20">
-        <v>1.025552030599781</v>
+        <v>1.051454799258209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045459074632528</v>
+        <v>1.038478219970233</v>
       </c>
       <c r="J20">
-        <v>1.022040147689843</v>
+        <v>1.035330729942656</v>
       </c>
       <c r="K20">
-        <v>1.042753289732524</v>
+        <v>1.048920974245739</v>
       </c>
       <c r="L20">
-        <v>1.026993374615098</v>
+        <v>1.042823883884336</v>
       </c>
       <c r="M20">
-        <v>1.03915998129332</v>
+        <v>1.054775221030506</v>
       </c>
       <c r="N20">
-        <v>1.011220495733646</v>
+        <v>1.015763700349239</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9898720913790288</v>
+        <v>1.028220655358312</v>
       </c>
       <c r="D21">
-        <v>1.026182772894191</v>
+        <v>1.044956663273363</v>
       </c>
       <c r="E21">
-        <v>1.009691108004824</v>
+        <v>1.03871309384166</v>
       </c>
       <c r="F21">
-        <v>1.02183706630228</v>
+        <v>1.05065636233364</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044355061909567</v>
+        <v>1.038313865270343</v>
       </c>
       <c r="J21">
-        <v>1.019799445298322</v>
+        <v>1.034862960641551</v>
       </c>
       <c r="K21">
-        <v>1.040684521871542</v>
+        <v>1.048503784091866</v>
       </c>
       <c r="L21">
-        <v>1.024491176336177</v>
+        <v>1.042283164085098</v>
       </c>
       <c r="M21">
-        <v>1.036416211565401</v>
+        <v>1.054182795848718</v>
       </c>
       <c r="N21">
-        <v>1.010465759417128</v>
+        <v>1.015607093937331</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9870434125434766</v>
+        <v>1.027676443446794</v>
       </c>
       <c r="D22">
-        <v>1.024251885645596</v>
+        <v>1.044565096362127</v>
       </c>
       <c r="E22">
-        <v>1.00746477994253</v>
+        <v>1.038243226376201</v>
       </c>
       <c r="F22">
-        <v>1.019465086105294</v>
+        <v>1.0501556258854</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043640502929168</v>
+        <v>1.038209670132154</v>
       </c>
       <c r="J22">
-        <v>1.018363008121653</v>
+        <v>1.034569050970888</v>
       </c>
       <c r="K22">
-        <v>1.039357745896928</v>
+        <v>1.04824141397892</v>
       </c>
       <c r="L22">
-        <v>1.02288979448393</v>
+        <v>1.041943696449533</v>
       </c>
       <c r="M22">
-        <v>1.034660552942352</v>
+        <v>1.053810853475333</v>
       </c>
       <c r="N22">
-        <v>1.009981862198038</v>
+        <v>1.015508661479959</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9885480789106548</v>
+        <v>1.027964850193158</v>
       </c>
       <c r="D23">
-        <v>1.02527844024224</v>
+        <v>1.044772605800836</v>
       </c>
       <c r="E23">
-        <v>1.008648276549027</v>
+        <v>1.03849219300049</v>
       </c>
       <c r="F23">
-        <v>1.02072603443018</v>
+        <v>1.05042095433936</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044021269008028</v>
+        <v>1.038264987083879</v>
       </c>
       <c r="J23">
-        <v>1.019127166709794</v>
+        <v>1.034724839048305</v>
       </c>
       <c r="K23">
-        <v>1.040063611076771</v>
+        <v>1.048380507092144</v>
       </c>
       <c r="L23">
-        <v>1.02374144564693</v>
+        <v>1.042123606307085</v>
       </c>
       <c r="M23">
-        <v>1.035594218594965</v>
+        <v>1.054007975461054</v>
       </c>
       <c r="N23">
-        <v>1.010239291852557</v>
+        <v>1.015560839164078</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.994360373357291</v>
+        <v>1.029102271146678</v>
       </c>
       <c r="D24">
-        <v>1.02925541735988</v>
+        <v>1.045591037590101</v>
       </c>
       <c r="E24">
-        <v>1.013236268330769</v>
+        <v>1.039474977997122</v>
       </c>
       <c r="F24">
-        <v>1.025613716154729</v>
+        <v>1.051468206556157</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045477243686843</v>
+        <v>1.038480960780467</v>
       </c>
       <c r="J24">
-        <v>1.022077257850533</v>
+        <v>1.035338575365566</v>
       </c>
       <c r="K24">
-        <v>1.042787541181402</v>
+        <v>1.048927967259423</v>
       </c>
       <c r="L24">
-        <v>1.027034860188975</v>
+        <v>1.042832957551308</v>
       </c>
       <c r="M24">
-        <v>1.039205476924745</v>
+        <v>1.054785162112915</v>
       </c>
       <c r="N24">
-        <v>1.011232994369085</v>
+        <v>1.015766326384648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000888501384797</v>
+        <v>1.030426232677218</v>
       </c>
       <c r="D25">
-        <v>1.033743327476117</v>
+        <v>1.046543781643365</v>
       </c>
       <c r="E25">
-        <v>1.018420952208069</v>
+        <v>1.040620805302354</v>
       </c>
       <c r="F25">
-        <v>1.031135737263405</v>
+        <v>1.052688945942984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047080686564304</v>
+        <v>1.038727819710077</v>
       </c>
       <c r="J25">
-        <v>1.025386000867488</v>
+        <v>1.036051585649804</v>
       </c>
       <c r="K25">
-        <v>1.045839468271521</v>
+        <v>1.049562924710507</v>
       </c>
       <c r="L25">
-        <v>1.030739881746696</v>
+        <v>1.043658260840771</v>
       </c>
       <c r="M25">
-        <v>1.043269200584998</v>
+        <v>1.055689327160208</v>
       </c>
       <c r="N25">
-        <v>1.012347173453786</v>
+        <v>1.016004905908802</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_84/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_84/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03148541099233</v>
+        <v>1.005933583709147</v>
       </c>
       <c r="D2">
-        <v>1.047306027732941</v>
+        <v>1.037226288867849</v>
       </c>
       <c r="E2">
-        <v>1.041538956723896</v>
+        <v>1.022451528839165</v>
       </c>
       <c r="F2">
-        <v>1.053666922211869</v>
+        <v>1.035427334018471</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03892164668376</v>
+        <v>1.048292965737213</v>
       </c>
       <c r="J2">
-        <v>1.036620876777417</v>
+        <v>1.027938259203451</v>
       </c>
       <c r="K2">
-        <v>1.050069034670119</v>
+        <v>1.048190264935886</v>
       </c>
       <c r="L2">
-        <v>1.044318186378461</v>
+        <v>1.033606694336188</v>
       </c>
       <c r="M2">
-        <v>1.056412259242944</v>
+        <v>1.046414224516985</v>
       </c>
       <c r="N2">
-        <v>1.016195276744317</v>
+        <v>1.013206274431409</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03225628289602</v>
+        <v>1.009508961141</v>
       </c>
       <c r="D3">
-        <v>1.047860804491825</v>
+        <v>1.039701977821557</v>
       </c>
       <c r="E3">
-        <v>1.042208037903043</v>
+        <v>1.025320935344213</v>
       </c>
       <c r="F3">
-        <v>1.054379481876735</v>
+        <v>1.038481780306733</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039060588742105</v>
+        <v>1.049135855414905</v>
       </c>
       <c r="J3">
-        <v>1.037034553001851</v>
+        <v>1.029743716634977</v>
       </c>
       <c r="K3">
-        <v>1.05043629598212</v>
+        <v>1.049850867614754</v>
       </c>
       <c r="L3">
-        <v>1.044798287530243</v>
+        <v>1.035639765239547</v>
       </c>
       <c r="M3">
-        <v>1.056938166464557</v>
+        <v>1.048644863121055</v>
       </c>
       <c r="N3">
-        <v>1.01633354031845</v>
+        <v>1.013813764138901</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032755916406945</v>
+        <v>1.011783698886503</v>
       </c>
       <c r="D4">
-        <v>1.048220379435842</v>
+        <v>1.041280135057947</v>
       </c>
       <c r="E4">
-        <v>1.042642085963329</v>
+        <v>1.027152302277911</v>
       </c>
       <c r="F4">
-        <v>1.054841681012223</v>
+        <v>1.04043086190337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03914965874165</v>
+        <v>1.049664390179565</v>
       </c>
       <c r="J4">
-        <v>1.037302369039882</v>
+        <v>1.030890705193763</v>
       </c>
       <c r="K4">
-        <v>1.050673827858964</v>
+        <v>1.050904620893055</v>
       </c>
       <c r="L4">
-        <v>1.045109368745053</v>
+        <v>1.036933705764086</v>
       </c>
       <c r="M4">
-        <v>1.057278912619181</v>
+        <v>1.050064632750448</v>
       </c>
       <c r="N4">
-        <v>1.016423020380937</v>
+        <v>1.014199574983057</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032966158551251</v>
+        <v>1.012730978971373</v>
       </c>
       <c r="D5">
-        <v>1.048371685663215</v>
+        <v>1.041938021299719</v>
       </c>
       <c r="E5">
-        <v>1.042824822879325</v>
+        <v>1.027916302155572</v>
       </c>
       <c r="F5">
-        <v>1.055036256677122</v>
+        <v>1.041243873839067</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039186903129764</v>
+        <v>1.049882603878601</v>
       </c>
       <c r="J5">
-        <v>1.037414991012139</v>
+        <v>1.031367923386448</v>
       </c>
       <c r="K5">
-        <v>1.050773658257039</v>
+        <v>1.051342738481559</v>
       </c>
       <c r="L5">
-        <v>1.045240247121191</v>
+        <v>1.037472628408631</v>
       </c>
       <c r="M5">
-        <v>1.057422267987863</v>
+        <v>1.05065597882177</v>
       </c>
       <c r="N5">
-        <v>1.016460640722366</v>
+        <v>1.014360065250224</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033001470581343</v>
+        <v>1.012889509982278</v>
       </c>
       <c r="D6">
-        <v>1.048397098847955</v>
+        <v>1.042048160065157</v>
       </c>
       <c r="E6">
-        <v>1.042855520579532</v>
+        <v>1.028044239197134</v>
       </c>
       <c r="F6">
-        <v>1.055068942387037</v>
+        <v>1.041380012585449</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039193144837967</v>
+        <v>1.049919011000076</v>
       </c>
       <c r="J6">
-        <v>1.037433902579854</v>
+        <v>1.031447761890185</v>
       </c>
       <c r="K6">
-        <v>1.050790418534707</v>
+        <v>1.051416016768894</v>
       </c>
       <c r="L6">
-        <v>1.045262227984362</v>
+        <v>1.03756282314747</v>
       </c>
       <c r="M6">
-        <v>1.057446344129819</v>
+        <v>1.050754947999476</v>
       </c>
       <c r="N6">
-        <v>1.016466957500195</v>
+        <v>1.014386913367584</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03275872490424</v>
+        <v>1.011796391589738</v>
       </c>
       <c r="D7">
-        <v>1.048222400645947</v>
+        <v>1.041288947497418</v>
       </c>
       <c r="E7">
-        <v>1.042644526671738</v>
+        <v>1.027162533885761</v>
       </c>
       <c r="F7">
-        <v>1.054844279894932</v>
+        <v>1.040441750269308</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039150157192345</v>
+        <v>1.049667321535406</v>
       </c>
       <c r="J7">
-        <v>1.037303873775741</v>
+        <v>1.030897101208715</v>
       </c>
       <c r="K7">
-        <v>1.050675161909535</v>
+        <v>1.050910494098299</v>
       </c>
       <c r="L7">
-        <v>1.045111117158047</v>
+        <v>1.036940926562122</v>
       </c>
       <c r="M7">
-        <v>1.057280827727641</v>
+        <v>1.050072555891628</v>
       </c>
       <c r="N7">
-        <v>1.016423523054919</v>
+        <v>1.014201726111356</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031745758165606</v>
+        <v>1.007150087997396</v>
       </c>
       <c r="D8">
-        <v>1.047493392221064</v>
+        <v>1.038067957794865</v>
       </c>
       <c r="E8">
-        <v>1.04176484520412</v>
+        <v>1.023426599767892</v>
       </c>
       <c r="F8">
-        <v>1.053907500703907</v>
+        <v>1.036465362847449</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038968775181392</v>
+        <v>1.04858135241509</v>
       </c>
       <c r="J8">
-        <v>1.036760650810426</v>
+        <v>1.028552895100115</v>
       </c>
       <c r="K8">
-        <v>1.050193174386736</v>
+        <v>1.048755829686273</v>
       </c>
       <c r="L8">
-        <v>1.044480350130304</v>
+        <v>1.034298324239994</v>
       </c>
       <c r="M8">
-        <v>1.056589897991452</v>
+        <v>1.047173043379719</v>
       </c>
       <c r="N8">
-        <v>1.01624200031041</v>
+        <v>1.01341310774232</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029967208931432</v>
+        <v>0.998653486337497</v>
       </c>
       <c r="D9">
-        <v>1.046213452194299</v>
+        <v>1.032204365282332</v>
       </c>
       <c r="E9">
-        <v>1.0402233112041</v>
+        <v>1.016642048590261</v>
       </c>
       <c r="F9">
-        <v>1.052265495606573</v>
+        <v>1.029241272671783</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03864279814639</v>
+        <v>1.046535859886651</v>
       </c>
       <c r="J9">
-        <v>1.03580455442317</v>
+        <v>1.024253883239856</v>
       </c>
       <c r="K9">
-        <v>1.049343068427164</v>
+        <v>1.044795696954603</v>
       </c>
       <c r="L9">
-        <v>1.043372173268251</v>
+        <v>1.029470769566416</v>
       </c>
       <c r="M9">
-        <v>1.055375910486719</v>
+        <v>1.04187709909074</v>
       </c>
       <c r="N9">
-        <v>1.015922265402013</v>
+        <v>1.01196599515334</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028785949077922</v>
+        <v>0.992763206507438</v>
       </c>
       <c r="D10">
-        <v>1.045363419898123</v>
+        <v>1.02816077589173</v>
       </c>
       <c r="E10">
-        <v>1.03920151426416</v>
+        <v>1.01197292203561</v>
       </c>
       <c r="F10">
-        <v>1.051176824099277</v>
+        <v>1.024267945025073</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03842125205051</v>
+        <v>1.045079628676269</v>
       </c>
       <c r="J10">
-        <v>1.03516800004771</v>
+        <v>1.021266919450877</v>
       </c>
       <c r="K10">
-        <v>1.04877589430015</v>
+        <v>1.04203953631481</v>
       </c>
       <c r="L10">
-        <v>1.042635713068182</v>
+        <v>1.026129315027639</v>
       </c>
       <c r="M10">
-        <v>1.054569059849928</v>
+        <v>1.038212435591685</v>
       </c>
       <c r="N10">
-        <v>1.015709226830794</v>
+        <v>1.010960064427708</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028275528578907</v>
+        <v>0.9901548230430129</v>
       </c>
       <c r="D11">
-        <v>1.044996146351774</v>
+        <v>1.026376009329406</v>
       </c>
       <c r="E11">
-        <v>1.038760489202055</v>
+        <v>1.009913969848378</v>
       </c>
       <c r="F11">
-        <v>1.050706869014342</v>
+        <v>1.022074497294104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038324327316763</v>
+        <v>1.044426183802677</v>
       </c>
       <c r="J11">
-        <v>1.03489258241788</v>
+        <v>1.019942986931825</v>
       </c>
       <c r="K11">
-        <v>1.048530216979875</v>
+        <v>1.040817084371882</v>
       </c>
       <c r="L11">
-        <v>1.042317389241559</v>
+        <v>1.024651314097919</v>
       </c>
       <c r="M11">
-        <v>1.054220294535419</v>
+        <v>1.036591791512677</v>
       </c>
       <c r="N11">
-        <v>1.015617013077928</v>
+        <v>1.010514112393028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.028086098892599</v>
+        <v>0.9891768776969022</v>
       </c>
       <c r="D12">
-        <v>1.044859846355802</v>
+        <v>1.025707805616249</v>
       </c>
       <c r="E12">
-        <v>1.038596888346527</v>
+        <v>1.009143369895602</v>
       </c>
       <c r="F12">
-        <v>1.050532526514321</v>
+        <v>1.021253512057494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038288176648532</v>
+        <v>1.04417994317721</v>
       </c>
       <c r="J12">
-        <v>1.034790313708454</v>
+        <v>1.019446461250462</v>
       </c>
       <c r="K12">
-        <v>1.048438949927235</v>
+        <v>1.04035851933698</v>
       </c>
       <c r="L12">
-        <v>1.042199236632147</v>
+        <v>1.024097469108609</v>
       </c>
       <c r="M12">
-        <v>1.054090840543617</v>
+        <v>1.035984549938447</v>
       </c>
       <c r="N12">
-        <v>1.015582766307658</v>
+        <v>1.010346852404472</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028126724784893</v>
+        <v>0.9893870673714571</v>
       </c>
       <c r="D13">
-        <v>1.044889077623545</v>
+        <v>1.025851378580159</v>
       </c>
       <c r="E13">
-        <v>1.038631971498985</v>
+        <v>1.00930893302475</v>
       </c>
       <c r="F13">
-        <v>1.050569913590564</v>
+        <v>1.021429902530815</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038295937796924</v>
+        <v>1.04423292339961</v>
       </c>
       <c r="J13">
-        <v>1.034812249147791</v>
+        <v>1.0195531857947</v>
       </c>
       <c r="K13">
-        <v>1.04845852751811</v>
+        <v>1.040457088565485</v>
       </c>
       <c r="L13">
-        <v>1.042224576803002</v>
+        <v>1.02421649306683</v>
       </c>
       <c r="M13">
-        <v>1.054118604626847</v>
+        <v>1.036115046449153</v>
       </c>
       <c r="N13">
-        <v>1.015590112097974</v>
+        <v>1.010382804162091</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02825986692066</v>
+        <v>0.9900741732057682</v>
       </c>
       <c r="D14">
-        <v>1.044984877255443</v>
+        <v>1.026320883778886</v>
       </c>
       <c r="E14">
-        <v>1.038746961495756</v>
+        <v>1.009850391754305</v>
       </c>
       <c r="F14">
-        <v>1.050692453312525</v>
+        <v>1.022006763124455</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038321342116093</v>
+        <v>1.044405901823941</v>
       </c>
       <c r="J14">
-        <v>1.034884128159581</v>
+        <v>1.019902042027388</v>
       </c>
       <c r="K14">
-        <v>1.048522673043693</v>
+        <v>1.040779271667063</v>
       </c>
       <c r="L14">
-        <v>1.042307620925008</v>
+        <v>1.024605633059292</v>
       </c>
       <c r="M14">
-        <v>1.054209591920556</v>
+        <v>1.03654170516011</v>
       </c>
       <c r="N14">
-        <v>1.015614182113579</v>
+        <v>1.010500319870912</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028341921873037</v>
+        <v>0.9904963073615793</v>
       </c>
       <c r="D15">
-        <v>1.04504391876812</v>
+        <v>1.026609458826819</v>
       </c>
       <c r="E15">
-        <v>1.038817839247662</v>
+        <v>1.010183225063038</v>
       </c>
       <c r="F15">
-        <v>1.050767983268435</v>
+        <v>1.022361351692815</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038336974901044</v>
+        <v>1.044512010255199</v>
       </c>
       <c r="J15">
-        <v>1.034928419693883</v>
+        <v>1.020116348210568</v>
       </c>
       <c r="K15">
-        <v>1.048562193733688</v>
+        <v>1.040977180006507</v>
       </c>
       <c r="L15">
-        <v>1.042358798731505</v>
+        <v>1.024844747112449</v>
       </c>
       <c r="M15">
-        <v>1.054265664571402</v>
+        <v>1.036803880815859</v>
       </c>
       <c r="N15">
-        <v>1.015629013191812</v>
+        <v>1.010572509690447</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028819846782056</v>
+        <v>0.992935065126344</v>
       </c>
       <c r="D16">
-        <v>1.045387811589676</v>
+        <v>1.028278496791333</v>
       </c>
       <c r="E16">
-        <v>1.039230813744444</v>
+        <v>1.012108765317185</v>
       </c>
       <c r="F16">
-        <v>1.051208044156506</v>
+        <v>1.024412654962676</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038427663755873</v>
+        <v>1.045122506418621</v>
       </c>
       <c r="J16">
-        <v>1.035186283251477</v>
+        <v>1.021354126597157</v>
       </c>
       <c r="K16">
-        <v>1.04879219738956</v>
+        <v>1.042120043915261</v>
       </c>
       <c r="L16">
-        <v>1.04265685128672</v>
+        <v>1.026226734670306</v>
       </c>
       <c r="M16">
-        <v>1.054592219190535</v>
+        <v>1.038319264588467</v>
       </c>
       <c r="N16">
-        <v>1.015715347500353</v>
+        <v>1.010989437571147</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029119925109687</v>
+        <v>0.9944490798323241</v>
       </c>
       <c r="D17">
-        <v>1.045603741118494</v>
+        <v>1.029316253096838</v>
       </c>
       <c r="E17">
-        <v>1.039490243389657</v>
+        <v>1.013306492916258</v>
       </c>
       <c r="F17">
-        <v>1.051484471764764</v>
+        <v>1.025688520048033</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038484284972984</v>
+        <v>1.045499269331069</v>
       </c>
       <c r="J17">
-        <v>1.03534809270826</v>
+        <v>1.022122255748568</v>
       </c>
       <c r="K17">
-        <v>1.048936450354003</v>
+        <v>1.042829072200033</v>
       </c>
       <c r="L17">
-        <v>1.042843965097467</v>
+        <v>1.027085165482007</v>
       </c>
       <c r="M17">
-        <v>1.054797221936776</v>
+        <v>1.039260645006443</v>
       </c>
       <c r="N17">
-        <v>1.015769512022922</v>
+        <v>1.011248149522538</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029295059095539</v>
+        <v>0.9953266239429213</v>
       </c>
       <c r="D18">
-        <v>1.045729765822209</v>
+        <v>1.029918303417078</v>
       </c>
       <c r="E18">
-        <v>1.039641701151904</v>
+        <v>1.014001534740284</v>
       </c>
       <c r="F18">
-        <v>1.051645846754441</v>
+        <v>1.026428871198803</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038517215228626</v>
+        <v>1.045716826352633</v>
       </c>
       <c r="J18">
-        <v>1.035442494039052</v>
+        <v>1.022567355872881</v>
       </c>
       <c r="K18">
-        <v>1.049020582152736</v>
+        <v>1.043239846050813</v>
       </c>
       <c r="L18">
-        <v>1.042953160139559</v>
+        <v>1.027582882265905</v>
       </c>
       <c r="M18">
-        <v>1.054916854946975</v>
+        <v>1.039806485763134</v>
       </c>
       <c r="N18">
-        <v>1.015801108456439</v>
+        <v>1.011398054382667</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029354792731013</v>
+        <v>0.9956249128947531</v>
       </c>
       <c r="D19">
-        <v>1.045772749927107</v>
+        <v>1.030123039999821</v>
       </c>
       <c r="E19">
-        <v>1.039693367478553</v>
+        <v>1.014237926782874</v>
       </c>
       <c r="F19">
-        <v>1.051700895035373</v>
+        <v>1.026680667594728</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038528427296919</v>
+        <v>1.045790636574786</v>
       </c>
       <c r="J19">
-        <v>1.03547468590635</v>
+        <v>1.022718630351026</v>
       </c>
       <c r="K19">
-        <v>1.049049267430767</v>
+        <v>1.04337943994628</v>
       </c>
       <c r="L19">
-        <v>1.042990402058551</v>
+        <v>1.027752088543281</v>
       </c>
       <c r="M19">
-        <v>1.054957656556329</v>
+        <v>1.039992057363766</v>
       </c>
       <c r="N19">
-        <v>1.015811882548191</v>
+        <v>1.011449000489801</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029087718837891</v>
+        <v>0.9942872176772074</v>
       </c>
       <c r="D20">
-        <v>1.045580565978459</v>
+        <v>1.029205249617456</v>
       </c>
       <c r="E20">
-        <v>1.039462394874237</v>
+        <v>1.013178359192088</v>
       </c>
       <c r="F20">
-        <v>1.051454799258209</v>
+        <v>1.02555203059978</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038478219970233</v>
+        <v>1.045459074632528</v>
       </c>
       <c r="J20">
-        <v>1.035330729942656</v>
+        <v>1.022040147689842</v>
       </c>
       <c r="K20">
-        <v>1.048920974245739</v>
+        <v>1.042753289732523</v>
       </c>
       <c r="L20">
-        <v>1.042823883884336</v>
+        <v>1.026993374615098</v>
       </c>
       <c r="M20">
-        <v>1.054775221030506</v>
+        <v>1.039159981293319</v>
       </c>
       <c r="N20">
-        <v>1.015763700349239</v>
+        <v>1.011220495733646</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028220655358312</v>
+        <v>0.9898720913790279</v>
       </c>
       <c r="D21">
-        <v>1.044956663273363</v>
+        <v>1.026182772894191</v>
       </c>
       <c r="E21">
-        <v>1.03871309384166</v>
+        <v>1.009691108004824</v>
       </c>
       <c r="F21">
-        <v>1.05065636233364</v>
+        <v>1.02183706630228</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038313865270343</v>
+        <v>1.044355061909567</v>
       </c>
       <c r="J21">
-        <v>1.034862960641551</v>
+        <v>1.019799445298322</v>
       </c>
       <c r="K21">
-        <v>1.048503784091866</v>
+        <v>1.040684521871542</v>
       </c>
       <c r="L21">
-        <v>1.042283164085098</v>
+        <v>1.024491176336176</v>
       </c>
       <c r="M21">
-        <v>1.054182795848718</v>
+        <v>1.0364162115654</v>
       </c>
       <c r="N21">
-        <v>1.015607093937331</v>
+        <v>1.010465759417127</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027676443446794</v>
+        <v>0.9870434125434767</v>
       </c>
       <c r="D22">
-        <v>1.044565096362127</v>
+        <v>1.024251885645596</v>
       </c>
       <c r="E22">
-        <v>1.038243226376201</v>
+        <v>1.00746477994253</v>
       </c>
       <c r="F22">
-        <v>1.0501556258854</v>
+        <v>1.019465086105294</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038209670132154</v>
+        <v>1.043640502929168</v>
       </c>
       <c r="J22">
-        <v>1.034569050970888</v>
+        <v>1.018363008121653</v>
       </c>
       <c r="K22">
-        <v>1.04824141397892</v>
+        <v>1.039357745896928</v>
       </c>
       <c r="L22">
-        <v>1.041943696449533</v>
+        <v>1.02288979448393</v>
       </c>
       <c r="M22">
-        <v>1.053810853475333</v>
+        <v>1.034660552942352</v>
       </c>
       <c r="N22">
-        <v>1.015508661479959</v>
+        <v>1.009981862198038</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027964850193158</v>
+        <v>0.9885480789106545</v>
       </c>
       <c r="D23">
-        <v>1.044772605800836</v>
+        <v>1.02527844024224</v>
       </c>
       <c r="E23">
-        <v>1.03849219300049</v>
+        <v>1.008648276549026</v>
       </c>
       <c r="F23">
-        <v>1.05042095433936</v>
+        <v>1.02072603443018</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038264987083879</v>
+        <v>1.044021269008028</v>
       </c>
       <c r="J23">
-        <v>1.034724839048305</v>
+        <v>1.019127166709794</v>
       </c>
       <c r="K23">
-        <v>1.048380507092144</v>
+        <v>1.040063611076771</v>
       </c>
       <c r="L23">
-        <v>1.042123606307085</v>
+        <v>1.02374144564693</v>
       </c>
       <c r="M23">
-        <v>1.054007975461054</v>
+        <v>1.035594218594965</v>
       </c>
       <c r="N23">
-        <v>1.015560839164078</v>
+        <v>1.010239291852557</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029102271146678</v>
+        <v>0.994360373357291</v>
       </c>
       <c r="D24">
-        <v>1.045591037590101</v>
+        <v>1.02925541735988</v>
       </c>
       <c r="E24">
-        <v>1.039474977997122</v>
+        <v>1.013236268330769</v>
       </c>
       <c r="F24">
-        <v>1.051468206556157</v>
+        <v>1.025613716154729</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038480960780467</v>
+        <v>1.045477243686843</v>
       </c>
       <c r="J24">
-        <v>1.035338575365566</v>
+        <v>1.022077257850533</v>
       </c>
       <c r="K24">
-        <v>1.048927967259423</v>
+        <v>1.042787541181402</v>
       </c>
       <c r="L24">
-        <v>1.042832957551308</v>
+        <v>1.027034860188975</v>
       </c>
       <c r="M24">
-        <v>1.054785162112915</v>
+        <v>1.039205476924745</v>
       </c>
       <c r="N24">
-        <v>1.015766326384648</v>
+        <v>1.011232994369085</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030426232677218</v>
+        <v>1.000888501384796</v>
       </c>
       <c r="D25">
-        <v>1.046543781643365</v>
+        <v>1.033743327476117</v>
       </c>
       <c r="E25">
-        <v>1.040620805302354</v>
+        <v>1.018420952208068</v>
       </c>
       <c r="F25">
-        <v>1.052688945942984</v>
+        <v>1.031135737263405</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038727819710077</v>
+        <v>1.047080686564303</v>
       </c>
       <c r="J25">
-        <v>1.036051585649804</v>
+        <v>1.025386000867488</v>
       </c>
       <c r="K25">
-        <v>1.049562924710507</v>
+        <v>1.045839468271521</v>
       </c>
       <c r="L25">
-        <v>1.043658260840771</v>
+        <v>1.030739881746695</v>
       </c>
       <c r="M25">
-        <v>1.055689327160208</v>
+        <v>1.043269200584998</v>
       </c>
       <c r="N25">
-        <v>1.016004905908802</v>
+        <v>1.012347173453786</v>
       </c>
     </row>
   </sheetData>
